--- a/testhomepage.xlsx
+++ b/testhomepage.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>备注</t>
   </si>
@@ -85,76 +85,76 @@
     <t>巴西本土牛肉资讯，包括开关资讯，牛肉价格，工厂动态等等</t>
   </si>
   <si>
+    <t>https://www.souagro.net/categoria/editoriais/pecuaria/</t>
+  </si>
+  <si>
+    <t>巴西媒体资讯</t>
+  </si>
+  <si>
+    <t>https://globorural.globo.com/agricultura/</t>
+  </si>
+  <si>
+    <t>https://www.comprerural.com/categorias/noticias/</t>
+  </si>
+  <si>
+    <t>西班牙和拉丁美洲肉类资讯</t>
+  </si>
+  <si>
+    <t>https://eurocarne.com/noticias</t>
+  </si>
+  <si>
+    <t>巴西行业资讯</t>
+  </si>
+  <si>
+    <t>https://www.farmnews.com.br/category/mercado/</t>
+  </si>
+  <si>
+    <t>https://www.theagribiz.com/agribuzz/</t>
+  </si>
+  <si>
+    <t>爱尔兰最大的农业新闻网站，更新全球肉类新闻</t>
+  </si>
+  <si>
+    <t>https://www.agriland.ie/latest-farming-news/</t>
+  </si>
+  <si>
+    <t>全球牛肉行业新闻及市场报告</t>
+  </si>
+  <si>
+    <t>https://www.thebeefsite.com/latest?page=1</t>
+  </si>
+  <si>
+    <t>红肉和畜牧业新闻、研究，牛羊市场</t>
+  </si>
+  <si>
+    <t>https://www.mla.com.au/news-and-events/industry-news/</t>
+  </si>
+  <si>
+    <t>加拿大牛肉业协会，更新农业新闻</t>
+  </si>
+  <si>
+    <t>https://www.canadiancattlemen.ca/</t>
+  </si>
+  <si>
+    <t>乌拉圭权威新闻网站，在农业板块有肉类新闻更新</t>
+  </si>
+  <si>
+    <t>https://www.elobservador.com.uy/argentina</t>
+  </si>
+  <si>
+    <t>阿根廷农业资讯门户网站</t>
+  </si>
+  <si>
+    <t>https://www.batimes.com.ar/topics/agriculture</t>
+  </si>
+  <si>
+    <t>巴西农业经济相关网</t>
+  </si>
+  <si>
+    <t>https://valor.globo.com/agronegocios/</t>
+  </si>
+  <si>
     <t>https://beefpoint.com.br/cadeia-produtiva/giro-do-boi/</t>
-  </si>
-  <si>
-    <t>https://www.souagro.net/categoria/editoriais/pecuaria/</t>
-  </si>
-  <si>
-    <t>巴西媒体资讯</t>
-  </si>
-  <si>
-    <t>https://globorural.globo.com/agricultura/</t>
-  </si>
-  <si>
-    <t>https://www.comprerural.com/categorias/noticias/</t>
-  </si>
-  <si>
-    <t>西班牙和拉丁美洲肉类资讯</t>
-  </si>
-  <si>
-    <t>https://eurocarne.com/noticias</t>
-  </si>
-  <si>
-    <t>巴西行业资讯</t>
-  </si>
-  <si>
-    <t>https://www.farmnews.com.br/category/mercado/</t>
-  </si>
-  <si>
-    <t>https://www.theagribiz.com/agribuzz/</t>
-  </si>
-  <si>
-    <t>爱尔兰最大的农业新闻网站，更新全球肉类新闻</t>
-  </si>
-  <si>
-    <t>https://www.agriland.ie/latest-farming-news/</t>
-  </si>
-  <si>
-    <t>全球牛肉行业新闻及市场报告</t>
-  </si>
-  <si>
-    <t>https://www.thebeefsite.com/latest?page=1</t>
-  </si>
-  <si>
-    <t>红肉和畜牧业新闻、研究，牛羊市场</t>
-  </si>
-  <si>
-    <t>https://www.mla.com.au/news-and-events/industry-news/</t>
-  </si>
-  <si>
-    <t>加拿大牛肉业协会，更新农业新闻</t>
-  </si>
-  <si>
-    <t>https://www.canadiancattlemen.ca/</t>
-  </si>
-  <si>
-    <t>乌拉圭权威新闻网站，在农业板块有肉类新闻更新</t>
-  </si>
-  <si>
-    <t>https://www.elobservador.com.uy/argentina</t>
-  </si>
-  <si>
-    <t>阿根廷农业资讯门户网站</t>
-  </si>
-  <si>
-    <t>https://www.batimes.com.ar/topics/agriculture</t>
-  </si>
-  <si>
-    <t>巴西农业经济相关网</t>
-  </si>
-  <si>
-    <t>https://valor.globo.com/agronegocios/</t>
   </si>
   <si>
     <t>https://globorural.globo.com/pecuaria/</t>
@@ -1106,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1214,149 +1214,138 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
       <c r="C21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="17.25" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
         <v>21</v>
       </c>
     </row>
@@ -1457,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1468,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1476,7 +1465,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>42</v>
@@ -1487,10 +1476,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1498,10 +1487,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1509,10 +1498,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1520,10 +1509,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -1531,10 +1520,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1542,10 +1531,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -1553,10 +1542,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -1564,10 +1553,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -1575,7 +1564,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
@@ -1586,10 +1575,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1597,10 +1586,10 @@
     </row>
     <row r="21" ht="17.25" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
       <c r="C21">
         <v>21</v>

--- a/testhomepage.xlsx
+++ b/testhomepage.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,15 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
-  <si>
-    <t>备注</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+  <si>
+    <t>source</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>来源</t>
+    <t>note</t>
   </si>
   <si>
     <t>乌拉圭农业网站</t>
@@ -52,115 +52,229 @@
     <t>https://blasinayasociados.com/ganaderia/</t>
   </si>
   <si>
+    <t>澳洲最大的牛肉资讯网站，</t>
+  </si>
+  <si>
+    <t>https://www.beefcentral.com/news/</t>
+  </si>
+  <si>
+    <t>阿根廷养牛以及阿根廷牛肉新闻</t>
+  </si>
+  <si>
+    <t>https://bichosdecampo.com/</t>
+  </si>
+  <si>
+    <t>乌拉圭农畜渔业部官方网站</t>
+  </si>
+  <si>
+    <t>https://www.gub.uy/ministerio-ganaderia-agricultura-pesca/comunicacion/noticias</t>
+  </si>
+  <si>
+    <t>巴西农业部</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/agricultura/pt-br/assuntos/noticias</t>
+  </si>
+  <si>
+    <t>阿根廷本土牛肉资讯网站</t>
+  </si>
+  <si>
+    <t>https://www.noticiasagropecuarias.com/category/ganaderia/</t>
+  </si>
+  <si>
+    <t>巴西本土牛肉资讯，包括开关资讯，牛肉价格，工厂动态等等</t>
+  </si>
+  <si>
+    <t>https://beefpoint.com.br/cadeia-produtiva/giro-do-boi/</t>
+  </si>
+  <si>
+    <t>https://www.souagro.net/categoria/editoriais/pecuaria/</t>
+  </si>
+  <si>
+    <t>巴西媒体资讯</t>
+  </si>
+  <si>
+    <t>https://globorural.globo.com/pecuaria/</t>
+  </si>
+  <si>
+    <t>https://www.comprerural.com/categorias/noticias/</t>
+  </si>
+  <si>
+    <t>西班牙和拉丁美洲肉类资讯</t>
+  </si>
+  <si>
+    <t>https://eurocarne.com/noticias</t>
+  </si>
+  <si>
+    <t>巴西行业资讯</t>
+  </si>
+  <si>
+    <t>https://www.farmnews.com.br/category/mercado/</t>
+  </si>
+  <si>
+    <t>https://www.theagribiz.com/agribuzz/</t>
+  </si>
+  <si>
+    <t>爱尔兰最大的农业新闻网站，更新全球肉类新闻</t>
+  </si>
+  <si>
+    <t>https://www.agriland.ie/latest-farming-news/</t>
+  </si>
+  <si>
+    <t>全球牛肉行业新闻及市场报告</t>
+  </si>
+  <si>
+    <t>https://www.thebeefsite.com/latest?page=1</t>
+  </si>
+  <si>
+    <t>红肉和畜牧业新闻、研究，牛羊市场</t>
+  </si>
+  <si>
+    <t>https://www.mla.com.au/news-and-events/industry-news/</t>
+  </si>
+  <si>
+    <t>加拿大牛肉业协会，更新农业新闻</t>
+  </si>
+  <si>
+    <t>https://www.canadiancattlemen.ca/</t>
+  </si>
+  <si>
+    <t>乌拉圭权威新闻网站，在农业板块有肉类新闻更新</t>
+  </si>
+  <si>
+    <t>https://www.elobservador.com.uy/elobservador/agro</t>
+  </si>
+  <si>
+    <t>阿根廷农业资讯门户网站</t>
+  </si>
+  <si>
+    <t>https://www.batimes.com.ar/topics/agriculture</t>
+  </si>
+  <si>
+    <t>美国农业资讯网站</t>
+  </si>
+  <si>
+    <t>https://brownfieldagnews.com/top-story/</t>
+  </si>
+  <si>
+    <t>阿根廷农牧渔业部</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/senasa/senasacomunica</t>
+  </si>
+  <si>
+    <t>巴西农业经济研究所</t>
+  </si>
+  <si>
+    <t>http://www.iea.agricultura.sp.gov.br/out/index.php</t>
+  </si>
+  <si>
+    <t>Suinocultura（巴西）</t>
+  </si>
+  <si>
+    <t>https://www.suinoculturaindustrial.com.br/</t>
+  </si>
+  <si>
+    <t>西班牙畜牧业</t>
+  </si>
+  <si>
+    <t>https://agroinformacion.com/category/ganaderia/porcino/</t>
+  </si>
+  <si>
+    <t>The Pig Site</t>
+  </si>
+  <si>
+    <t>https://www.thepigsite.com/latest?page=1</t>
+  </si>
+  <si>
+    <t>搜猪网</t>
+  </si>
+  <si>
+    <t>https://www.soozhu.com/c/xinwen/</t>
+  </si>
+  <si>
+    <t>The Poultry Site</t>
+  </si>
+  <si>
+    <t>https://www.thepoultrysite.com/latest?page=1</t>
+  </si>
+  <si>
+    <t>国际海运网</t>
+  </si>
+  <si>
+    <t>http://info.shippingchina.com/bluenews/index/list/type/%E6%B8%AF%E5%8F%A3%E6%96%B0%E9%97%BB.html</t>
+  </si>
+  <si>
+    <t>世界动物卫生组织</t>
+  </si>
+  <si>
+    <t>https://www.woah.org/en/media/news/</t>
+  </si>
+  <si>
+    <t>德国养猪业协会（ISN）</t>
+  </si>
+  <si>
+    <t>https://www.schweine.net/</t>
+  </si>
+  <si>
+    <t>National Hog Farmer（美国猪）</t>
+  </si>
+  <si>
+    <t>https://www.nationalhogfarmer.com/market-news</t>
+  </si>
+  <si>
+    <t>Mercopress英文农业资讯网站</t>
+  </si>
+  <si>
+    <t>https://en.mercopress.com/agriculture</t>
+  </si>
+  <si>
+    <t>MIA新西兰肉类资讯</t>
+  </si>
+  <si>
+    <t>https://www.mia.co.nz/news-and-views/</t>
+  </si>
+  <si>
+    <t>智利农业研究和政策办公室官方网站</t>
+  </si>
+  <si>
+    <t>https://www.odepa.gob.cl/publicaciones/articulos</t>
+  </si>
+  <si>
+    <t>clarin阿根廷养牛业资讯</t>
+  </si>
+  <si>
+    <t>https://www.clarin.com/tema/ganaderia.html</t>
+  </si>
+  <si>
+    <t>https://www.pecuaria.com.br/info.php</t>
+  </si>
+  <si>
+    <t>美国活牛和牛肉生产商的权威声音，更新全球牛肉新闻，政策方面偏多</t>
+  </si>
+  <si>
+    <t>https://www.ncba.org/ncba-news/press-releases</t>
+  </si>
+  <si>
+    <t>行业领先的贸易杂志，更新全球肉类和美国家禽新闻</t>
+  </si>
+  <si>
+    <t>https://www.meatpoultry.com/</t>
+  </si>
+  <si>
+    <t>美国肉类新闻，牛为主</t>
+  </si>
+  <si>
+    <t>https://www.northernag.net/category/news/</t>
+  </si>
+  <si>
     <t>澳洲最大的牛肉资讯网站，更新澳洲养牛以及全球牛肉新闻，以及活牛价格，预测</t>
   </si>
   <si>
-    <t>https://www.beefcentral.com/news/</t>
-  </si>
-  <si>
-    <t>阿根廷养牛以及阿根廷牛肉新闻</t>
-  </si>
-  <si>
-    <t>https://bichosdecampo.com/</t>
-  </si>
-  <si>
-    <t>乌拉圭农畜渔业部官方网站</t>
-  </si>
-  <si>
-    <t>https://www.gub.uy/ministerio-ganaderia-agricultura-pesca/comunicacion/noticias</t>
-  </si>
-  <si>
-    <t>巴西农业部</t>
-  </si>
-  <si>
-    <t>https://www.gov.br/agricultura/pt-br/assuntos/noticias</t>
-  </si>
-  <si>
-    <t>阿根廷本土牛肉资讯网站</t>
-  </si>
-  <si>
-    <t>https://www.noticiasagropecuarias.com/category/ganaderia/</t>
-  </si>
-  <si>
-    <t>巴西本土牛肉资讯，包括开关资讯，牛肉价格，工厂动态等等</t>
-  </si>
-  <si>
-    <t>https://www.souagro.net/categoria/editoriais/pecuaria/</t>
-  </si>
-  <si>
-    <t>巴西媒体资讯</t>
-  </si>
-  <si>
-    <t>https://globorural.globo.com/agricultura/</t>
-  </si>
-  <si>
-    <t>https://www.comprerural.com/categorias/noticias/</t>
-  </si>
-  <si>
-    <t>西班牙和拉丁美洲肉类资讯</t>
-  </si>
-  <si>
-    <t>https://eurocarne.com/noticias</t>
-  </si>
-  <si>
-    <t>巴西行业资讯</t>
-  </si>
-  <si>
-    <t>https://www.farmnews.com.br/category/mercado/</t>
-  </si>
-  <si>
-    <t>https://www.theagribiz.com/agribuzz/</t>
-  </si>
-  <si>
-    <t>爱尔兰最大的农业新闻网站，更新全球肉类新闻</t>
-  </si>
-  <si>
-    <t>https://www.agriland.ie/latest-farming-news/</t>
-  </si>
-  <si>
-    <t>全球牛肉行业新闻及市场报告</t>
-  </si>
-  <si>
-    <t>https://www.thebeefsite.com/latest?page=1</t>
-  </si>
-  <si>
-    <t>红肉和畜牧业新闻、研究，牛羊市场</t>
-  </si>
-  <si>
-    <t>https://www.mla.com.au/news-and-events/industry-news/</t>
-  </si>
-  <si>
-    <t>加拿大牛肉业协会，更新农业新闻</t>
-  </si>
-  <si>
-    <t>https://www.canadiancattlemen.ca/</t>
-  </si>
-  <si>
-    <t>乌拉圭权威新闻网站，在农业板块有肉类新闻更新</t>
-  </si>
-  <si>
-    <t>https://www.elobservador.com.uy/argentina</t>
-  </si>
-  <si>
-    <t>阿根廷农业资讯门户网站</t>
-  </si>
-  <si>
-    <t>https://www.batimes.com.ar/topics/agriculture</t>
-  </si>
-  <si>
     <t>巴西农业经济相关网</t>
   </si>
   <si>
     <t>https://valor.globo.com/agronegocios/</t>
-  </si>
-  <si>
-    <t>https://beefpoint.com.br/cadeia-produtiva/giro-do-boi/</t>
-  </si>
-  <si>
-    <t>https://globorural.globo.com/pecuaria/</t>
-  </si>
-  <si>
-    <t>https://www.elobservador.com.uy/elobservador/agro</t>
   </si>
 </sst>
 </file>
@@ -782,7 +896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,9 +904,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1130,10 +1241,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -1141,10 +1252,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
@@ -1152,10 +1263,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
@@ -1163,10 +1274,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
@@ -1174,10 +1285,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -1185,10 +1296,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
@@ -1196,10 +1307,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8">
@@ -1207,152 +1318,389 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
         <v>28</v>
       </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
         <v>34</v>
       </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
         <v>36</v>
       </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39">
         <v>38</v>
       </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="17.25" spans="1:3">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41">
         <v>40</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://tardaguila.uy/ganaderia" tooltip="https://tardaguila.uy/ganaderia"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://blasinayasociados.com/ganaderia/"/>
+    <hyperlink ref="B22" r:id="rId1" display="https://brownfieldagnews.com/top-story/" tooltip="https://brownfieldagnews.com/top-story/"/>
+    <hyperlink ref="B23" r:id="rId2" display="https://www.argentina.gob.ar/senasa/senasacomunica" tooltip="https://www.argentina.gob.ar/senasa/senasacomunica"/>
+    <hyperlink ref="B24" r:id="rId3" display="http://www.iea.agricultura.sp.gov.br/out/index.php" tooltip="http://www.iea.agricultura.sp.gov.br/out/index.php"/>
+    <hyperlink ref="B25" r:id="rId4" display="https://www.suinoculturaindustrial.com.br/" tooltip="https://www.suinoculturaindustrial.com.br/"/>
+    <hyperlink ref="B26" r:id="rId5" display="https://agroinformacion.com/category/ganaderia/porcino/" tooltip="https://agroinformacion.com/category/ganaderia/porcino/"/>
+    <hyperlink ref="B27" r:id="rId6" display="https://www.thepigsite.com/latest?page=1" tooltip="https://www.thepigsite.com/latest?page=1"/>
+    <hyperlink ref="B28" r:id="rId7" display="https://www.soozhu.com/c/xinwen/" tooltip="https://www.soozhu.com/c/xinwen/"/>
+    <hyperlink ref="B29" r:id="rId8" display="https://www.thepoultrysite.com/latest?page=1" tooltip="https://www.thepoultrysite.com/latest?page=1"/>
+    <hyperlink ref="B31" r:id="rId9" display="https://www.woah.org/en/media/news/" tooltip="https://www.woah.org/en/media/news/"/>
+    <hyperlink ref="B32" r:id="rId10" display="https://www.schweine.net/" tooltip="https://www.schweine.net/"/>
+    <hyperlink ref="B33" r:id="rId11" display="https://www.nationalhogfarmer.com/market-news" tooltip="https://www.nationalhogfarmer.com/market-news"/>
+    <hyperlink ref="B34" r:id="rId12" display="https://en.mercopress.com/agriculture" tooltip="https://en.mercopress.com/agriculture"/>
+    <hyperlink ref="B35" r:id="rId13" display="https://www.mia.co.nz/news-and-views/" tooltip="https://www.mia.co.nz/news-and-views/"/>
+    <hyperlink ref="B36" r:id="rId14" display="https://www.odepa.gob.cl/publicaciones/articulos" tooltip="https://www.odepa.gob.cl/publicaciones/articulos"/>
+    <hyperlink ref="B37" r:id="rId15" display="https://www.clarin.com/tema/ganaderia.html" tooltip="https://www.clarin.com/tema/ganaderia.html"/>
+    <hyperlink ref="B38" r:id="rId16" display="https://www.pecuaria.com.br/info.php" tooltip="https://www.pecuaria.com.br/info.php"/>
+    <hyperlink ref="B39" r:id="rId17" display="https://www.ncba.org/ncba-news/press-releases" tooltip="https://www.ncba.org/ncba-news/press-releases"/>
+    <hyperlink ref="B40" r:id="rId18" display="https://www.meatpoultry.com/" tooltip="https://www.meatpoultry.com/"/>
+    <hyperlink ref="B41" r:id="rId19" display="https://www.northernag.net/category/news/" tooltip="https://www.northernag.net/category/news/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1388,7 +1736,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1446,7 +1794,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1457,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1465,10 +1813,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1476,10 +1824,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1487,10 +1835,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1498,10 +1846,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1509,10 +1857,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -1520,10 +1868,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1531,10 +1879,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -1542,10 +1890,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -1553,10 +1901,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -1564,10 +1912,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -1575,10 +1923,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1586,10 +1934,10 @@
     </row>
     <row r="21" ht="17.25" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>21</v>
